--- a/data/outputs/management_altmetric/39.xlsx
+++ b/data/outputs/management_altmetric/39.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE105"/>
+  <dimension ref="A1:CF105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1025,6 +1030,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1268,6 +1276,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1515,6 +1526,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1754,6 +1768,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2001,6 +2018,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2240,6 +2260,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2479,6 +2502,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2726,6 +2752,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2965,6 +2994,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3206,6 +3238,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3451,6 +3486,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3690,6 +3728,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3939,6 +3980,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4178,6 +4222,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4417,6 +4464,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4666,6 +4716,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4905,6 +4958,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5150,6 +5206,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>64.19199999999999</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5393,6 +5452,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5634,6 +5696,9 @@
         <v>0</v>
       </c>
       <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5871,6 +5936,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6110,6 +6178,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6349,6 +6420,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6588,6 +6662,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6835,6 +6912,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7074,6 +7154,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7317,6 +7400,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7564,6 +7650,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7811,6 +7900,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8050,6 +8142,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8293,6 +8388,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8532,6 +8630,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8777,6 +8878,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>3.55</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9020,6 +9124,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9259,6 +9366,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9506,6 +9616,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9745,6 +9858,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9988,6 +10104,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10229,6 +10348,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10468,6 +10590,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10707,6 +10832,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10950,6 +11078,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11193,6 +11324,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11442,6 +11576,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11689,6 +11826,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11928,6 +12068,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12175,6 +12318,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12414,6 +12560,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12653,6 +12802,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12888,6 +13040,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13131,6 +13286,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13378,6 +13536,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13617,6 +13778,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13860,6 +14024,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14099,6 +14266,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14342,6 +14512,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14591,6 +14764,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14840,6 +15016,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15075,6 +15254,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15322,6 +15504,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15569,6 +15754,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15812,6 +16000,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16061,6 +16252,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16300,6 +16494,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16539,6 +16736,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -16782,6 +16982,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17021,6 +17224,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17268,6 +17474,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17507,6 +17716,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -17747,6 +17959,9 @@
       </c>
       <c r="CE71" t="n">
         <v>0</v>
+      </c>
+      <c r="CF71" t="n">
+        <v>18.8</v>
       </c>
     </row>
     <row r="72">
@@ -17983,6 +18198,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18226,6 +18444,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18465,6 +18686,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -18712,6 +18936,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -18955,6 +19182,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19198,6 +19428,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19439,6 +19672,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -19678,6 +19914,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -19917,6 +20156,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20166,6 +20408,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20407,6 +20652,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -20652,6 +20900,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -20891,6 +21142,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21130,6 +21384,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21365,6 +21622,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -21614,6 +21874,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -21857,6 +22120,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22096,6 +22362,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22345,6 +22614,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>3.45</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -22584,6 +22856,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -22821,6 +23096,9 @@
         <v>0</v>
       </c>
       <c r="CE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23050,6 +23328,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23299,6 +23580,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -23546,6 +23830,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -23785,6 +24072,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24024,6 +24314,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24269,6 +24562,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -24508,6 +24804,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -24751,6 +25050,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -24994,6 +25296,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25237,6 +25542,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -25476,6 +25784,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -25717,6 +26028,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -25964,6 +26278,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
